--- a/Программа обучения младших разработчиков.xlsx
+++ b/Программа обучения младших разработчиков.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyuldasheva\Documents\Адаптация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyuldasheva\Documents\Адаптация\dar-python-mentoring-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2F0C2-903C-48B3-BBA0-C06B7660151E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0863D-DC9A-4EF7-820F-B14A8ACC632F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>План обучения на 6 месяцев для младших разработчиков</t>
   </si>
@@ -934,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -989,16 +989,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1019,15 +1010,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,6 +1030,40 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1268,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1283,13 +1301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -1320,15 +1338,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1340,13 +1358,13 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -1465,57 +1483,57 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="53">
         <v>45219</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="53">
         <v>45233</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="53">
         <v>45247</v>
       </c>
       <c r="F15" s="7"/>
@@ -1683,248 +1701,248 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="1:11" ht="52" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" ht="50.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="56">
         <v>3</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="56">
         <v>2</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="46">
+      <c r="F27" s="57"/>
+      <c r="G27" s="58">
         <v>2</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="60">
         <v>45251</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" ht="38" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="35">
         <v>2</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="45">
+      <c r="E28" s="32"/>
+      <c r="F28" s="35">
         <v>11</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="36">
         <v>11</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="27">
         <v>45265</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="100.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="35">
         <v>3</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="35">
         <v>12</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="46">
+      <c r="F29" s="32"/>
+      <c r="G29" s="36">
         <v>12</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="27">
         <v>45286</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="38" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="35">
         <v>2</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="35">
         <v>22</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46">
+      <c r="F30" s="32"/>
+      <c r="G30" s="36">
         <v>22</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="27">
         <v>45314</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="38" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="35">
         <v>3</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="35">
         <v>16</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="35">
         <v>40</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="36">
         <v>56</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="27">
         <v>45342</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="38" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="35">
         <v>2</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="35">
         <v>14</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="35">
         <v>24</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="36">
         <v>38</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="27">
         <v>45363</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="28">
         <v>2</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="28">
         <v>10</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="33" t="s">
+      <c r="G33" s="28"/>
+      <c r="H33" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="27">
         <v>45258</v>
       </c>
-      <c r="J33" s="54"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1937,167 +1955,167 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="62">
         <v>45251</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="27">
         <v>45258</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="27">
         <v>45258</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="27">
         <v>45265</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="27">
         <v>45272</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="27">
         <v>45279</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="27">
         <v>45276</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="27">
         <v>45300</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="27">
         <v>45307</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="27">
         <v>45314</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="27">
         <v>45328</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="27">
         <v>45335</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="27">
         <v>45342</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="27">
         <v>45349</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="27">
         <v>45356</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="27">
         <v>45363</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="41"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
+      <c r="A55" s="42"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
+      <c r="A56" s="42"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="42"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="41"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="42"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="43"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="41"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
